--- a/adminTasks (version 1).xlsx
+++ b/adminTasks (version 1).xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Garanti\GarantiMigration\EPM-CyberArk-BeyondTrust-Policy-Migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2C4381-9D52-4145-9792-B2F6F6B75F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CB1FB-7790-483B-8756-9BE9C6F942A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$55</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
   <si>
     <t>AdminPolicyName</t>
   </si>
@@ -332,6 +334,111 @@
   </si>
   <si>
     <t>%SystemRoot%\system32\inetsrv\inetmgr.exe</t>
+  </si>
+  <si>
+    <t>AdminPublisher</t>
+  </si>
+  <si>
+    <t>AdminPubType</t>
+  </si>
+  <si>
+    <t>Microsoft Windows</t>
+  </si>
+  <si>
+    <t>AdminPubMatchCase</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AdminProduct</t>
+  </si>
+  <si>
+    <t>IIS Manager</t>
+  </si>
+  <si>
+    <t>AdminProdMatchCase</t>
+  </si>
+  <si>
+    <t>AdminProdType</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\inetsrv\appcmd.exe</t>
+  </si>
+  <si>
+    <t>Application Server Command Line Admin Tool</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\SYSTEM32\CERTSRV.MSC</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe "C:\Windows\system32\certsrv.msc"</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\dhcpmgmt.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe "C:\Windows\system32\dhcpmgmt.msc"</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\fsrm.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe C:\Windows\system32\fsrm.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe C:\Windows\system32\gpmc.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\tsmmc.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\StorageMgmt.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe "C:\Windows\system32\StorageMgmt.msc"</t>
+  </si>
+  <si>
+    <t>SrmReports</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>File Server Storage Reports Manager</t>
+  </si>
+  <si>
+    <t>AdminServiceDisName</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\services.msc</t>
+  </si>
+  <si>
+    <t>C:\Windows\system32\mmc.exe "C:\Windows\system32\services.msc"</t>
+  </si>
+  <si>
+    <t>{FCC74B77-EC3E-4DD8-A80B-008A702075A9}</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\system32\azman.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\SYSTEM32\CERTTMPL.MSC</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\dfrgui.exe</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\dfsmgmt.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\rrasmgmt.msc</t>
+  </si>
+  <si>
+    <t>SQLServerManager</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\wsus.msc</t>
   </si>
 </sst>
 </file>
@@ -347,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,12 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +483,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,26 +764,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,15 +819,36 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -727,693 +857,985 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="I21" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J44" t="s">
+      <c r="V44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="I49" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="E54" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/adminTasks (version 1).xlsx
+++ b/adminTasks (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Garanti\GarantiMigration\EPM-CyberArk-BeyondTrust-Policy-Migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841CB1FB-7790-483B-8756-9BE9C6F942A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FD5E83-530B-4B65-A78C-D5E92DAF3030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="146">
   <si>
     <t>AdminPolicyName</t>
   </si>
@@ -439,6 +439,33 @@
   </si>
   <si>
     <t>%SystemRoot%\System32\wsus.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\wmimgmt.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\inetcpl.cpl</t>
+  </si>
+  <si>
+    <t>jucheck.exe</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\sysdm.cpl</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\lusrmgr.msc</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\mstsc.exe</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\inetmgr.exe</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\iashost.exe</t>
+  </si>
+  <si>
+    <t>%SystemRoot%\System32\wins.exe</t>
   </si>
 </sst>
 </file>
@@ -480,10 +507,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,996 +867,1077 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="2" t="s">
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="V44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
         <v>86</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" t="s">
         <v>34</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
         <v>98</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" t="s">
         <v>34</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" t="s">
         <v>16</v>
       </c>
     </row>
